--- a/learning_results_after_normalization/RF_results.xlsx
+++ b/learning_results_after_normalization/RF_results.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\PredectingPLMatchesResult\learning_results_after_normalization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C07D14-888C-4AF3-8EC1-77971539C600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="9">
   <si>
     <t>criterion</t>
   </si>
@@ -33,16 +39,25 @@
   <si>
     <t>gini</t>
   </si>
+  <si>
+    <t>n_estimators=5</t>
+  </si>
+  <si>
+    <t>n_estimators=15</t>
+  </si>
+  <si>
+    <t>n_estimators=10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,7 +65,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +116,2772 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Forest Accuracy</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>min_samples_split=8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>0.58909090909090911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59181818181818191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56454545454545457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57454545454545458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56727272727272726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57272727272727264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57181818181818189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57272727272727264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54272727272727261</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56272727272727274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E73-4B76-8EEE-DB7A474EB0FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>0.61363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6227272727272728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60090909090909084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58727272727272717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59636363636363643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58545454545454556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59454545454545449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E73-4B76-8EEE-DB7A474EB0FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators=15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>0.61272727272727279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61636363636363634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62363636363636366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60636363636363633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58727272727272728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62090909090909085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60454545454545461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6072727272727273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59909090909090912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E73-4B76-8EEE-DB7A474EB0FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599670864"/>
+        <c:axId val="599671184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599670864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>max_depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599671184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599671184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599670864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Forest Accuracy</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>min_samples_split=4</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>0.5918181818181818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57454545454545447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55363636363636359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53090909090909089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2E7-4A54-8677-94FD3079045F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61636363636363634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58727272727272717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59636363636363643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5790909090909091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2E7-4A54-8677-94FD3079045F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_estimators=15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$221</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="220"/>
+                <c:pt idx="0">
+                  <c:v>0.63545454545454549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60909090909090913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59818181818181815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59818181818181826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58545454545454534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58727272727272717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2E7-4A54-8677-94FD3079045F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="525142968"/>
+        <c:axId val="525142008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="525142968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>max_depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525142008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="525142008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="525142968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA366D9-509C-4415-B4FD-B3815FBAF75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65CAA14-6C11-499C-9168-A4B71F3CA3E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -147,7 +2927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +2959,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +3011,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +3204,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F221"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +3229,38 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>54</v>
       </c>
@@ -429,10 +3277,40 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>0.6354545454545455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.63545454545454549</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0.5918181818181818</v>
+      </c>
+      <c r="K2">
+        <v>0.61</v>
+      </c>
+      <c r="L2">
+        <v>0.63545454545454549</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>0.58909090909090911</v>
+      </c>
+      <c r="R2">
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="S2">
+        <v>0.61272727272727279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>30</v>
       </c>
@@ -449,10 +3327,40 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.6254545454545455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.62545454545454549</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>0.58363636363636362</v>
+      </c>
+      <c r="K3">
+        <v>0.61636363636363634</v>
+      </c>
+      <c r="L3">
+        <v>0.62181818181818183</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3">
+        <v>0.59181818181818191</v>
+      </c>
+      <c r="R3">
+        <v>0.6227272727272728</v>
+      </c>
+      <c r="S3">
+        <v>0.61636363636363634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>97</v>
       </c>
@@ -469,10 +3377,40 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>0.6245454545454545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.62454545454545451</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>0.57454545454545447</v>
+      </c>
+      <c r="K4">
+        <v>0.62</v>
+      </c>
+      <c r="L4">
+        <v>0.60909090909090913</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>0.56454545454545457</v>
+      </c>
+      <c r="R4">
+        <v>0.62</v>
+      </c>
+      <c r="S4">
+        <v>0.62363636363636366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>65</v>
       </c>
@@ -489,10 +3427,40 @@
         <v>15</v>
       </c>
       <c r="F5">
-        <v>0.6236363636363637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.62363636363636366</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="L5">
+        <v>0.62181818181818183</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>0.57454545454545458</v>
+      </c>
+      <c r="R5">
+        <v>0.60090909090909084</v>
+      </c>
+      <c r="S5">
+        <v>0.60636363636363633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>63</v>
       </c>
@@ -509,10 +3477,40 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>0.6236363636363637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.62363636363636366</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="K6">
+        <v>0.59545454545454546</v>
+      </c>
+      <c r="L6">
+        <v>0.6</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>0.56727272727272726</v>
+      </c>
+      <c r="R6">
+        <v>0.59545454545454546</v>
+      </c>
+      <c r="S6">
+        <v>0.58727272727272728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>38</v>
       </c>
@@ -531,8 +3529,38 @@
       <c r="F7">
         <v>0.6227272727272728</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="K7">
+        <v>0.58727272727272717</v>
+      </c>
+      <c r="L7">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>0.57272727272727264</v>
+      </c>
+      <c r="R7">
+        <v>0.58727272727272717</v>
+      </c>
+      <c r="S7">
+        <v>0.62090909090909085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>108</v>
       </c>
@@ -551,8 +3579,38 @@
       <c r="F8">
         <v>0.6227272727272728</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>0.55363636363636359</v>
+      </c>
+      <c r="K8">
+        <v>0.59727272727272729</v>
+      </c>
+      <c r="L8">
+        <v>0.59818181818181815</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>0.57181818181818189</v>
+      </c>
+      <c r="R8">
+        <v>0.59727272727272729</v>
+      </c>
+      <c r="S8">
+        <v>0.60454545454545461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -569,10 +3627,40 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <v>0.6218181818181818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.62181818181818183</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="K9">
+        <v>0.59636363636363643</v>
+      </c>
+      <c r="L9">
+        <v>0.59818181818181826</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>0.57272727272727264</v>
+      </c>
+      <c r="R9">
+        <v>0.59636363636363643</v>
+      </c>
+      <c r="S9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -589,10 +3677,40 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>0.6218181818181818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.62181818181818183</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0.52999999999999992</v>
+      </c>
+      <c r="K10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.58545454545454534</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>0.54272727272727261</v>
+      </c>
+      <c r="R10">
+        <v>0.58545454545454556</v>
+      </c>
+      <c r="S10">
+        <v>0.6072727272727273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42</v>
       </c>
@@ -609,10 +3727,40 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>0.6218181818181817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.62181818181818171</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0.53090909090909089</v>
+      </c>
+      <c r="K11">
+        <v>0.5790909090909091</v>
+      </c>
+      <c r="L11">
+        <v>0.58727272727272717</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>0.56272727272727274</v>
+      </c>
+      <c r="R11">
+        <v>0.59454545454545449</v>
+      </c>
+      <c r="S11">
+        <v>0.59909090909090912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -629,10 +3777,10 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>0.6209090909090909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.62090909090909085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>41</v>
       </c>
@@ -649,10 +3797,10 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <v>0.6209090909090909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.62090909090909085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>131</v>
       </c>
@@ -669,10 +3817,10 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>0.6209090909090909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.62090909090909085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>60</v>
       </c>
@@ -692,7 +3840,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -709,10 +3857,10 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <v>0.6190909090909091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.61909090909090914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -729,10 +3877,10 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <v>0.6181818181818183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.61818181818181828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -749,10 +3897,10 @@
         <v>14</v>
       </c>
       <c r="F18">
-        <v>0.6181818181818182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -769,10 +3917,10 @@
         <v>13</v>
       </c>
       <c r="F19">
-        <v>0.6181818181818182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -789,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>0.6181818181818182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -809,10 +3957,10 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>0.6172727272727274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.61727272727272742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>62</v>
       </c>
@@ -829,10 +3977,10 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>0.6172727272727273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.61727272727272731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>150</v>
       </c>
@@ -852,7 +4000,7 @@
         <v>0.6172727272727272</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -869,10 +4017,10 @@
         <v>14</v>
       </c>
       <c r="F24">
-        <v>0.6163636363636364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.61636363636363645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43</v>
       </c>
@@ -889,10 +4037,10 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>0.6163636363636363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.61636363636363634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -909,10 +4057,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>0.6163636363636363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.61636363636363634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -929,10 +4077,10 @@
         <v>13</v>
       </c>
       <c r="F27">
-        <v>0.6154545454545455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.61545454545454548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -949,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>0.6154545454545455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.61545454545454548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -969,10 +4117,10 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>0.6145454545454545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.61454545454545451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -989,10 +4137,10 @@
         <v>10</v>
       </c>
       <c r="F30">
-        <v>0.6136363636363636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -1009,10 +4157,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>0.6127272727272728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.61272727272727279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -1029,10 +4177,10 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>0.6127272727272728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.61272727272727279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1049,10 +4197,10 @@
         <v>14</v>
       </c>
       <c r="F33">
-        <v>0.6127272727272727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.61272727272727268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>51</v>
       </c>
@@ -1069,10 +4217,10 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <v>0.6127272727272727</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.61272727272727268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>64</v>
       </c>
@@ -1089,10 +4237,10 @@
         <v>14</v>
       </c>
       <c r="F35">
-        <v>0.6127272727272727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.61272727272727268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>95</v>
       </c>
@@ -1109,10 +4257,10 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>0.6118181818181818</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.61181818181818182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>14</v>
       </c>
@@ -1129,10 +4277,10 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>0.6118181818181818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>0.61181818181818182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>86</v>
       </c>
@@ -1149,10 +4297,10 @@
         <v>14</v>
       </c>
       <c r="F38">
-        <v>0.6118181818181818</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.61181818181818182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>53</v>
       </c>
@@ -1169,10 +4317,10 @@
         <v>14</v>
       </c>
       <c r="F39">
-        <v>0.6118181818181818</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.61181818181818182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>29</v>
       </c>
@@ -1189,10 +4337,10 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <v>0.610909090909091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.61090909090909096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>174</v>
       </c>
@@ -1209,10 +4357,10 @@
         <v>14</v>
       </c>
       <c r="F41">
-        <v>0.610909090909091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.61090909090909096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>115</v>
       </c>
@@ -1232,7 +4380,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>85</v>
       </c>
@@ -1252,7 +4400,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -1272,7 +4420,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -1289,10 +4437,10 @@
         <v>15</v>
       </c>
       <c r="F45">
-        <v>0.6090909090909091</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.60909090909090913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>7</v>
       </c>
@@ -1309,10 +4457,10 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>0.6090909090909091</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.60909090909090913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>80</v>
       </c>
@@ -1329,10 +4477,10 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>0.6090909090909091</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.60909090909090913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>196</v>
       </c>
@@ -1349,10 +4497,10 @@
         <v>14</v>
       </c>
       <c r="F48">
-        <v>0.6090909090909091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.60909090909090913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>194</v>
       </c>
@@ -1369,10 +4517,10 @@
         <v>12</v>
       </c>
       <c r="F49">
-        <v>0.6081818181818182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.60818181818181816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>61</v>
       </c>
@@ -1392,7 +4540,7 @@
         <v>0.6072727272727273</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>197</v>
       </c>
@@ -1412,7 +4560,7 @@
         <v>0.6072727272727273</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -1429,10 +4577,10 @@
         <v>9</v>
       </c>
       <c r="F52">
-        <v>0.6072727272727272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>0.60727272727272719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1449,10 +4597,10 @@
         <v>13</v>
       </c>
       <c r="F53">
-        <v>0.6063636363636364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.60636363636363644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>206</v>
       </c>
@@ -1469,10 +4617,10 @@
         <v>13</v>
       </c>
       <c r="F54">
-        <v>0.6063636363636364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.60636363636363644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>58</v>
       </c>
@@ -1489,10 +4637,10 @@
         <v>8</v>
       </c>
       <c r="F55">
-        <v>0.6063636363636363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.60636363636363633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>87</v>
       </c>
@@ -1509,10 +4657,10 @@
         <v>15</v>
       </c>
       <c r="F56">
-        <v>0.6063636363636363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.60636363636363633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>129</v>
       </c>
@@ -1529,10 +4677,10 @@
         <v>13</v>
       </c>
       <c r="F57">
-        <v>0.6054545454545456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.60545454545454558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>73</v>
       </c>
@@ -1549,10 +4697,10 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <v>0.6054545454545455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.60545454545454547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>37</v>
       </c>
@@ -1569,10 +4717,10 @@
         <v>9</v>
       </c>
       <c r="F59">
-        <v>0.6054545454545455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.60545454545454547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>70</v>
       </c>
@@ -1589,10 +4737,10 @@
         <v>9</v>
       </c>
       <c r="F60">
-        <v>0.6054545454545455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.60545454545454547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>84</v>
       </c>
@@ -1609,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>0.6054545454545454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.60545454545454536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>118</v>
       </c>
@@ -1629,10 +4777,10 @@
         <v>13</v>
       </c>
       <c r="F62">
-        <v>0.6045454545454547</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.60454545454545472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>34</v>
       </c>
@@ -1649,10 +4797,10 @@
         <v>6</v>
       </c>
       <c r="F63">
-        <v>0.6045454545454547</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.60454545454545472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>72</v>
       </c>
@@ -1669,10 +4817,10 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <v>0.6045454545454546</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.60454545454545461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>153</v>
       </c>
@@ -1689,10 +4837,10 @@
         <v>15</v>
       </c>
       <c r="F65">
-        <v>0.6045454545454546</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.60454545454545461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>195</v>
       </c>
@@ -1709,10 +4857,10 @@
         <v>13</v>
       </c>
       <c r="F66">
-        <v>0.6045454545454546</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.60454545454545461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>168</v>
       </c>
@@ -1732,7 +4880,7 @@
         <v>0.6045454545454545</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>141</v>
       </c>
@@ -1752,7 +4900,7 @@
         <v>0.6045454545454545</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>193</v>
       </c>
@@ -1769,10 +4917,10 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>0.6036363636363637</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.60363636363636375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>151</v>
       </c>
@@ -1789,10 +4937,10 @@
         <v>13</v>
       </c>
       <c r="F70">
-        <v>0.6036363636363637</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.60363636363636375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>107</v>
       </c>
@@ -1809,10 +4957,10 @@
         <v>13</v>
       </c>
       <c r="F71">
-        <v>0.6036363636363637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.60363636363636375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>15</v>
       </c>
@@ -1829,10 +4977,10 @@
         <v>9</v>
       </c>
       <c r="F72">
-        <v>0.6027272727272728</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.60272727272727278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>50</v>
       </c>
@@ -1849,10 +4997,10 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>0.6018181818181819</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.60181818181818192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>173</v>
       </c>
@@ -1869,10 +5017,10 @@
         <v>13</v>
       </c>
       <c r="F74">
-        <v>0.6018181818181818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.60181818181818181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>102</v>
       </c>
@@ -1889,10 +5037,10 @@
         <v>8</v>
       </c>
       <c r="F75">
-        <v>0.6009090909090911</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.60090909090909106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>39</v>
       </c>
@@ -1909,10 +5057,10 @@
         <v>11</v>
       </c>
       <c r="F76">
-        <v>0.6009090909090908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.60090909090909084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>82</v>
       </c>
@@ -1929,10 +5077,10 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>0.6009090909090908</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.60090909090909084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>140</v>
       </c>
@@ -1949,10 +5097,10 @@
         <v>13</v>
       </c>
       <c r="F78">
-        <v>0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>120</v>
       </c>
@@ -1969,10 +5117,10 @@
         <v>15</v>
       </c>
       <c r="F79">
-        <v>0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>71</v>
       </c>
@@ -1992,7 +5140,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>94</v>
       </c>
@@ -2012,7 +5160,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>175</v>
       </c>
@@ -2032,7 +5180,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>98</v>
       </c>
@@ -2052,7 +5200,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -2072,7 +5220,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>13</v>
       </c>
@@ -2092,7 +5240,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>119</v>
       </c>
@@ -2109,10 +5257,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>0.5999999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>207</v>
       </c>
@@ -2129,10 +5277,10 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>0.5999999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.59999999999999987</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>219</v>
       </c>
@@ -2149,10 +5297,10 @@
         <v>15</v>
       </c>
       <c r="F88">
-        <v>0.5990909090909091</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.59909090909090912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>139</v>
       </c>
@@ -2169,10 +5317,10 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>0.5990909090909091</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.59909090909090912</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>128</v>
       </c>
@@ -2189,10 +5337,10 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>0.599090909090909</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.59909090909090901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>186</v>
       </c>
@@ -2209,10 +5357,10 @@
         <v>15</v>
       </c>
       <c r="F91">
-        <v>0.5981818181818183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.59818181818181826</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -2229,10 +5377,10 @@
         <v>7</v>
       </c>
       <c r="F92">
-        <v>0.5981818181818181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.59818181818181815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>142</v>
       </c>
@@ -2249,10 +5397,10 @@
         <v>15</v>
       </c>
       <c r="F93">
-        <v>0.5981818181818181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.59818181818181815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>74</v>
       </c>
@@ -2272,7 +5420,7 @@
         <v>0.5972727272727274</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>172</v>
       </c>
@@ -2292,7 +5440,7 @@
         <v>0.5972727272727274</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>204</v>
       </c>
@@ -2312,7 +5460,7 @@
         <v>0.5972727272727274</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>148</v>
       </c>
@@ -2329,10 +5477,10 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>0.5972727272727273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.59727272727272729</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>35</v>
       </c>
@@ -2349,10 +5497,10 @@
         <v>7</v>
       </c>
       <c r="F98">
-        <v>0.5972727272727273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.59727272727272729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>92</v>
       </c>
@@ -2369,10 +5517,10 @@
         <v>9</v>
       </c>
       <c r="F99">
-        <v>0.5963636363636364</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.59636363636363643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>170</v>
       </c>
@@ -2389,10 +5537,10 @@
         <v>10</v>
       </c>
       <c r="F100">
-        <v>0.5963636363636364</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>0.59636363636363643</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>57</v>
       </c>
@@ -2409,10 +5557,10 @@
         <v>7</v>
       </c>
       <c r="F101">
-        <v>0.5963636363636364</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.59636363636363643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>23</v>
       </c>
@@ -2429,10 +5577,10 @@
         <v>6</v>
       </c>
       <c r="F102">
-        <v>0.5963636363636364</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.59636363636363643</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>75</v>
       </c>
@@ -2449,10 +5597,10 @@
         <v>14</v>
       </c>
       <c r="F103">
-        <v>0.5963636363636364</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.59636363636363643</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>134</v>
       </c>
@@ -2469,10 +5617,10 @@
         <v>7</v>
       </c>
       <c r="F104">
-        <v>0.5954545454545455</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>0.59545454545454546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>25</v>
       </c>
@@ -2489,10 +5637,10 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>0.5954545454545455</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.59545454545454546</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>81</v>
       </c>
@@ -2509,10 +5657,10 @@
         <v>9</v>
       </c>
       <c r="F106">
-        <v>0.5954545454545455</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.59545454545454546</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -2529,10 +5677,10 @@
         <v>10</v>
       </c>
       <c r="F107">
-        <v>0.5954545454545455</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>0.59545454545454546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>46</v>
       </c>
@@ -2549,10 +5697,10 @@
         <v>7</v>
       </c>
       <c r="F108">
-        <v>0.5954545454545453</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>0.59545454545454535</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>182</v>
       </c>
@@ -2572,7 +5720,7 @@
         <v>0.5945454545454546</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>214</v>
       </c>
@@ -2589,10 +5737,10 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>0.5945454545454545</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>0.59454545454545449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>113</v>
       </c>
@@ -2609,10 +5757,10 @@
         <v>8</v>
       </c>
       <c r="F111">
-        <v>0.5945454545454545</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>0.59454545454545449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>130</v>
       </c>
@@ -2629,10 +5777,10 @@
         <v>14</v>
       </c>
       <c r="F112">
-        <v>0.5945454545454545</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>0.59454545454545449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>36</v>
       </c>
@@ -2649,10 +5797,10 @@
         <v>8</v>
       </c>
       <c r="F113">
-        <v>0.5936363636363636</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>0.59363636363636363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>205</v>
       </c>
@@ -2669,10 +5817,10 @@
         <v>12</v>
       </c>
       <c r="F114">
-        <v>0.5927272727272728</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>0.59272727272727277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>59</v>
       </c>
@@ -2689,10 +5837,10 @@
         <v>9</v>
       </c>
       <c r="F115">
-        <v>0.5927272727272727</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>0.59272727272727266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>216</v>
       </c>
@@ -2709,10 +5857,10 @@
         <v>12</v>
       </c>
       <c r="F116">
-        <v>0.5927272727272727</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>0.59272727272727266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>184</v>
       </c>
@@ -2729,10 +5877,10 @@
         <v>13</v>
       </c>
       <c r="F117">
-        <v>0.5927272727272727</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.59272727272727266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>33</v>
       </c>
@@ -2749,10 +5897,10 @@
         <v>5</v>
       </c>
       <c r="F118">
-        <v>0.5918181818181819</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.59181818181818191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>218</v>
       </c>
@@ -2769,10 +5917,10 @@
         <v>14</v>
       </c>
       <c r="F119">
-        <v>0.5918181818181819</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.59181818181818191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>138</v>
       </c>
@@ -2792,7 +5940,7 @@
         <v>0.5918181818181818</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>159</v>
       </c>
@@ -2812,7 +5960,7 @@
         <v>0.5918181818181818</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -2832,7 +5980,7 @@
         <v>0.5918181818181818</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -2852,7 +6000,7 @@
         <v>0.5918181818181818</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>103</v>
       </c>
@@ -2872,7 +6020,7 @@
         <v>0.5918181818181818</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>12</v>
       </c>
@@ -2889,10 +6037,10 @@
         <v>6</v>
       </c>
       <c r="F125">
-        <v>0.5909090909090911</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>0.59090909090909105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>106</v>
       </c>
@@ -2909,10 +6057,10 @@
         <v>12</v>
       </c>
       <c r="F126">
-        <v>0.5909090909090909</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>47</v>
       </c>
@@ -2929,10 +6077,10 @@
         <v>8</v>
       </c>
       <c r="F127">
-        <v>0.5909090909090909</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>83</v>
       </c>
@@ -2949,10 +6097,10 @@
         <v>11</v>
       </c>
       <c r="F128">
-        <v>0.5909090909090909</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>24</v>
       </c>
@@ -2969,10 +6117,10 @@
         <v>7</v>
       </c>
       <c r="F129">
-        <v>0.5900000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>101</v>
       </c>
@@ -2989,10 +6137,10 @@
         <v>7</v>
       </c>
       <c r="F130">
-        <v>0.5900000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>93</v>
       </c>
@@ -3009,10 +6157,10 @@
         <v>10</v>
       </c>
       <c r="F131">
-        <v>0.5890909090909091</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>0.58909090909090911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>11</v>
       </c>
@@ -3029,10 +6177,10 @@
         <v>5</v>
       </c>
       <c r="F132">
-        <v>0.5890909090909091</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>0.58909090909090911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>215</v>
       </c>
@@ -3049,10 +6197,10 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>0.5890909090909091</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>0.58909090909090911</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>171</v>
       </c>
@@ -3069,10 +6217,10 @@
         <v>11</v>
       </c>
       <c r="F134">
-        <v>0.5881818181818181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>0.58818181818181814</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>145</v>
       </c>
@@ -3089,10 +6237,10 @@
         <v>7</v>
       </c>
       <c r="F135">
-        <v>0.5872727272727273</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>0.58727272727272728</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>109</v>
       </c>
@@ -3109,10 +6257,10 @@
         <v>15</v>
       </c>
       <c r="F136">
-        <v>0.5872727272727273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>0.58727272727272728</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>126</v>
       </c>
@@ -3129,10 +6277,10 @@
         <v>10</v>
       </c>
       <c r="F137">
-        <v>0.5872727272727272</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>0.58727272727272717</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>208</v>
       </c>
@@ -3149,10 +6297,10 @@
         <v>15</v>
       </c>
       <c r="F138">
-        <v>0.5872727272727272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>0.58727272727272717</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>136</v>
       </c>
@@ -3169,10 +6317,10 @@
         <v>9</v>
       </c>
       <c r="F139">
-        <v>0.5863636363636363</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.58636363636363631</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>201</v>
       </c>
@@ -3189,10 +6337,10 @@
         <v>8</v>
       </c>
       <c r="F140">
-        <v>0.5863636363636363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>0.58636363636363631</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>147</v>
       </c>
@@ -3209,10 +6357,10 @@
         <v>9</v>
       </c>
       <c r="F141">
-        <v>0.5863636363636363</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>0.58636363636363631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>157</v>
       </c>
@@ -3232,7 +6380,7 @@
         <v>0.5863636363636362</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>49</v>
       </c>
@@ -3249,10 +6397,10 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>0.5854545454545456</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>0.58545454545454556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>96</v>
       </c>
@@ -3269,10 +6417,10 @@
         <v>13</v>
       </c>
       <c r="F144">
-        <v>0.5854545454545456</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>0.58545454545454556</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>192</v>
       </c>
@@ -3289,10 +6437,10 @@
         <v>10</v>
       </c>
       <c r="F145">
-        <v>0.5854545454545456</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>0.58545454545454556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>135</v>
       </c>
@@ -3309,10 +6457,10 @@
         <v>8</v>
       </c>
       <c r="F146">
-        <v>0.5854545454545454</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>0.58545454545454545</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>164</v>
       </c>
@@ -3329,10 +6477,10 @@
         <v>15</v>
       </c>
       <c r="F147">
-        <v>0.5854545454545453</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>0.58545454545454534</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>190</v>
       </c>
@@ -3349,10 +6497,10 @@
         <v>8</v>
       </c>
       <c r="F148">
-        <v>0.5845454545454546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>0.58454545454545459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>188</v>
       </c>
@@ -3369,10 +6517,10 @@
         <v>6</v>
       </c>
       <c r="F149">
-        <v>0.5845454545454546</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>0.58454545454545459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>169</v>
       </c>
@@ -3389,10 +6537,10 @@
         <v>9</v>
       </c>
       <c r="F150">
-        <v>0.5845454545454546</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>0.58454545454545459</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45</v>
       </c>
@@ -3409,10 +6557,10 @@
         <v>6</v>
       </c>
       <c r="F151">
-        <v>0.5845454545454546</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>0.58454545454545459</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>67</v>
       </c>
@@ -3429,10 +6577,10 @@
         <v>6</v>
       </c>
       <c r="F152">
-        <v>0.5845454545454546</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>0.58454545454545459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>116</v>
       </c>
@@ -3449,10 +6597,10 @@
         <v>11</v>
       </c>
       <c r="F153">
-        <v>0.5836363636363637</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>0.58363636363636373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>68</v>
       </c>
@@ -3469,10 +6617,10 @@
         <v>7</v>
       </c>
       <c r="F154">
-        <v>0.5836363636363637</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>0.58363636363636373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>127</v>
       </c>
@@ -3489,10 +6637,10 @@
         <v>11</v>
       </c>
       <c r="F155">
-        <v>0.5836363636363637</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>0.58363636363636373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>22</v>
       </c>
@@ -3509,10 +6657,10 @@
         <v>5</v>
       </c>
       <c r="F156">
-        <v>0.5836363636363636</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>0.58363636363636362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>183</v>
       </c>
@@ -3529,10 +6677,10 @@
         <v>12</v>
       </c>
       <c r="F157">
-        <v>0.5836363636363636</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>0.58363636363636362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>105</v>
       </c>
@@ -3549,10 +6697,10 @@
         <v>11</v>
       </c>
       <c r="F158">
-        <v>0.5827272727272728</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>0.58272727272727276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>160</v>
       </c>
@@ -3569,10 +6717,10 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>0.5827272727272728</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>0.58272727272727276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>161</v>
       </c>
@@ -3589,10 +6737,10 @@
         <v>12</v>
       </c>
       <c r="F160">
-        <v>0.5827272727272728</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>0.58272727272727276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>152</v>
       </c>
@@ -3609,10 +6757,10 @@
         <v>14</v>
       </c>
       <c r="F161">
-        <v>0.5827272727272726</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>0.58272727272727265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>89</v>
       </c>
@@ -3629,10 +6777,10 @@
         <v>6</v>
       </c>
       <c r="F162">
-        <v>0.5818181818181818</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>0.58181818181818179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>149</v>
       </c>
@@ -3649,10 +6797,10 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>0.5818181818181818</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>0.58181818181818179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>213</v>
       </c>
@@ -3669,10 +6817,10 @@
         <v>9</v>
       </c>
       <c r="F164">
-        <v>0.5809090909090908</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>0.58090909090909082</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>66</v>
       </c>
@@ -3689,10 +6837,10 @@
         <v>5</v>
       </c>
       <c r="F165">
-        <v>0.5800000000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>125</v>
       </c>
@@ -3709,10 +6857,10 @@
         <v>9</v>
       </c>
       <c r="F166">
-        <v>0.5800000000000001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>178</v>
       </c>
@@ -3729,10 +6877,10 @@
         <v>7</v>
       </c>
       <c r="F167">
-        <v>0.5800000000000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>181</v>
       </c>
@@ -3749,10 +6897,10 @@
         <v>10</v>
       </c>
       <c r="F168">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>114</v>
       </c>
@@ -3769,10 +6917,10 @@
         <v>9</v>
       </c>
       <c r="F169">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>69</v>
       </c>
@@ -3789,10 +6937,10 @@
         <v>8</v>
       </c>
       <c r="F170">
-        <v>0.5790909090909092</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>0.57909090909090921</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>91</v>
       </c>
@@ -3812,7 +6960,7 @@
         <v>0.5790909090909091</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>124</v>
       </c>
@@ -3832,7 +6980,7 @@
         <v>0.5790909090909091</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>144</v>
       </c>
@@ -3852,7 +7000,7 @@
         <v>0.5790909090909091</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>203</v>
       </c>
@@ -3872,7 +7020,7 @@
         <v>0.5790909090909091</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>185</v>
       </c>
@@ -3892,7 +7040,7 @@
         <v>0.5790909090909091</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>158</v>
       </c>
@@ -3909,10 +7057,10 @@
         <v>9</v>
       </c>
       <c r="F176">
-        <v>0.5781818181818182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>0.57818181818181824</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>163</v>
       </c>
@@ -3929,10 +7077,10 @@
         <v>14</v>
       </c>
       <c r="F177">
-        <v>0.5772727272727273</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>0.57727272727272727</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>122</v>
       </c>
@@ -3949,10 +7097,10 @@
         <v>6</v>
       </c>
       <c r="F178">
-        <v>0.5763636363636364</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>0.57636363636363641</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>162</v>
       </c>
@@ -3969,10 +7117,10 @@
         <v>13</v>
       </c>
       <c r="F179">
-        <v>0.5754545454545454</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>0.57545454545454544</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>79</v>
       </c>
@@ -3989,10 +7137,10 @@
         <v>7</v>
       </c>
       <c r="F180">
-        <v>0.5745454545454546</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>0.57454545454545458</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>77</v>
       </c>
@@ -4009,10 +7157,10 @@
         <v>5</v>
       </c>
       <c r="F181">
-        <v>0.5745454545454546</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>0.57454545454545458</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44</v>
       </c>
@@ -4029,10 +7177,10 @@
         <v>5</v>
       </c>
       <c r="F182">
-        <v>0.5745454545454545</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>0.57454545454545447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>217</v>
       </c>
@@ -4049,10 +7197,10 @@
         <v>13</v>
       </c>
       <c r="F183">
-        <v>0.5736363636363636</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>0.57363636363636361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>90</v>
       </c>
@@ -4069,10 +7217,10 @@
         <v>7</v>
       </c>
       <c r="F184">
-        <v>0.5736363636363636</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>0.57363636363636361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>180</v>
       </c>
@@ -4089,10 +7237,10 @@
         <v>9</v>
       </c>
       <c r="F185">
-        <v>0.5736363636363636</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>0.57363636363636361</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>166</v>
       </c>
@@ -4109,10 +7257,10 @@
         <v>6</v>
       </c>
       <c r="F186">
-        <v>0.5727272727272729</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>0.57272727272727286</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>202</v>
       </c>
@@ -4129,10 +7277,10 @@
         <v>9</v>
       </c>
       <c r="F187">
-        <v>0.5727272727272728</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>0.57272727272727275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>121</v>
       </c>
@@ -4149,10 +7297,10 @@
         <v>5</v>
       </c>
       <c r="F188">
-        <v>0.5727272727272726</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>0.57272727272727264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>165</v>
       </c>
@@ -4169,10 +7317,10 @@
         <v>5</v>
       </c>
       <c r="F189">
-        <v>0.5727272727272726</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>0.57272727272727264</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>78</v>
       </c>
@@ -4189,10 +7337,10 @@
         <v>6</v>
       </c>
       <c r="F190">
-        <v>0.5727272727272726</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>0.57272727272727264</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>137</v>
       </c>
@@ -4209,10 +7357,10 @@
         <v>10</v>
       </c>
       <c r="F191">
-        <v>0.5727272727272725</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>0.57272727272727253</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>56</v>
       </c>
@@ -4229,10 +7377,10 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <v>0.5718181818181819</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>0.57181818181818189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>143</v>
       </c>
@@ -4249,10 +7397,10 @@
         <v>5</v>
       </c>
       <c r="F193">
-        <v>0.5718181818181819</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>0.57181818181818189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>99</v>
       </c>
@@ -4269,10 +7417,10 @@
         <v>5</v>
       </c>
       <c r="F194">
-        <v>0.5672727272727273</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>0.56727272727272726</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>100</v>
       </c>
@@ -4289,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="F195">
-        <v>0.5645454545454546</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>0.56454545454545457</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>55</v>
       </c>
@@ -4309,10 +7457,10 @@
         <v>5</v>
       </c>
       <c r="F196">
-        <v>0.5645454545454546</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>0.56454545454545457</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>189</v>
       </c>
@@ -4329,10 +7477,10 @@
         <v>7</v>
       </c>
       <c r="F197">
-        <v>0.5645454545454546</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>0.56454545454545457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>112</v>
       </c>
@@ -4349,10 +7497,10 @@
         <v>7</v>
       </c>
       <c r="F198">
-        <v>0.5645454545454545</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>0.56454545454545446</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>123</v>
       </c>
@@ -4369,10 +7517,10 @@
         <v>7</v>
       </c>
       <c r="F199">
-        <v>0.5636363636363637</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>0.56363636363636371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>191</v>
       </c>
@@ -4392,7 +7540,7 @@
         <v>0.5636363636363636</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>210</v>
       </c>
@@ -4412,7 +7560,7 @@
         <v>0.5636363636363636</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>110</v>
       </c>
@@ -4432,7 +7580,7 @@
         <v>0.5636363636363636</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>209</v>
       </c>
@@ -4449,10 +7597,10 @@
         <v>5</v>
       </c>
       <c r="F203">
-        <v>0.5627272727272727</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>0.56272727272727274</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>212</v>
       </c>
@@ -4469,10 +7617,10 @@
         <v>8</v>
       </c>
       <c r="F204">
-        <v>0.5618181818181818</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>0.56181818181818177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>88</v>
       </c>
@@ -4489,10 +7637,10 @@
         <v>5</v>
       </c>
       <c r="F205">
-        <v>0.5599999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>154</v>
       </c>
@@ -4509,10 +7657,10 @@
         <v>5</v>
       </c>
       <c r="F206">
-        <v>0.5599999999999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>0.55999999999999994</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>179</v>
       </c>
@@ -4529,10 +7677,10 @@
         <v>8</v>
       </c>
       <c r="F207">
-        <v>0.5590909090909091</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>0.55909090909090908</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>155</v>
       </c>
@@ -4549,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="F208">
-        <v>0.559090909090909</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>0.55909090909090897</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>156</v>
       </c>
@@ -4569,10 +7717,10 @@
         <v>7</v>
       </c>
       <c r="F209">
-        <v>0.5581818181818182</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>0.55818181818181822</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>211</v>
       </c>
@@ -4589,10 +7737,10 @@
         <v>7</v>
       </c>
       <c r="F210">
-        <v>0.5581818181818182</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>0.55818181818181822</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>133</v>
       </c>
@@ -4609,10 +7757,10 @@
         <v>6</v>
       </c>
       <c r="F211">
-        <v>0.5581818181818182</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>0.55818181818181822</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>177</v>
       </c>
@@ -4629,10 +7777,10 @@
         <v>6</v>
       </c>
       <c r="F212">
-        <v>0.5572727272727273</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>0.55727272727272725</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>167</v>
       </c>
@@ -4649,10 +7797,10 @@
         <v>7</v>
       </c>
       <c r="F213">
-        <v>0.5554545454545454</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>0.55545454545454542</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>132</v>
       </c>
@@ -4669,10 +7817,10 @@
         <v>5</v>
       </c>
       <c r="F214">
-        <v>0.5536363636363636</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>0.55363636363636359</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>200</v>
       </c>
@@ -4692,7 +7840,7 @@
         <v>0.5509090909090909</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>199</v>
       </c>
@@ -4712,7 +7860,7 @@
         <v>0.5509090909090909</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>111</v>
       </c>
@@ -4729,10 +7877,10 @@
         <v>6</v>
       </c>
       <c r="F217">
-        <v>0.5490909090909091</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>0.54909090909090907</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>146</v>
       </c>
@@ -4749,10 +7897,10 @@
         <v>8</v>
       </c>
       <c r="F218">
-        <v>0.5481818181818182</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>0.54818181818181821</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>187</v>
       </c>
@@ -4769,10 +7917,10 @@
         <v>5</v>
       </c>
       <c r="F219">
-        <v>0.5427272727272726</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>0.54272727272727261</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>198</v>
       </c>
@@ -4789,10 +7937,10 @@
         <v>5</v>
       </c>
       <c r="F220">
-        <v>0.5309090909090909</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>0.53090909090909089</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>176</v>
       </c>
@@ -4809,10 +7957,14 @@
         <v>5</v>
       </c>
       <c r="F221">
-        <v>0.5299999999999999</v>
+        <v>0.52999999999999992</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y1:AB10">
+    <sortCondition ref="Y1:Y10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>